--- a/SchedulingData/dynamic13/pso/scheduling2_2.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>244.3</v>
+        <v>228.12</v>
       </c>
       <c r="D2" t="n">
-        <v>308.94</v>
+        <v>283.62</v>
       </c>
       <c r="E2" t="n">
-        <v>13.236</v>
+        <v>10.308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>235.22</v>
+        <v>235.42</v>
       </c>
       <c r="D3" t="n">
-        <v>280.02</v>
+        <v>282.82</v>
       </c>
       <c r="E3" t="n">
-        <v>13.168</v>
+        <v>14.868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>207.2</v>
+        <v>233.52</v>
       </c>
       <c r="D4" t="n">
-        <v>271.18</v>
+        <v>281.42</v>
       </c>
       <c r="E4" t="n">
-        <v>13.512</v>
+        <v>14.988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>308.94</v>
+        <v>283.62</v>
       </c>
       <c r="D5" t="n">
-        <v>369.04</v>
+        <v>366.98</v>
       </c>
       <c r="E5" t="n">
-        <v>8.856</v>
+        <v>6.052</v>
       </c>
     </row>
     <row r="6">
@@ -542,93 +542,93 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>280.02</v>
+        <v>245.06</v>
       </c>
       <c r="D6" t="n">
-        <v>366.72</v>
+        <v>294.32</v>
       </c>
       <c r="E6" t="n">
-        <v>9.087999999999999</v>
+        <v>11.728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>238.38</v>
+        <v>366.98</v>
       </c>
       <c r="D7" t="n">
-        <v>302.34</v>
+        <v>431.88</v>
       </c>
       <c r="E7" t="n">
-        <v>12.896</v>
+        <v>3.192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>271.18</v>
+        <v>221.52</v>
       </c>
       <c r="D8" t="n">
-        <v>303.98</v>
+        <v>265.08</v>
       </c>
       <c r="E8" t="n">
-        <v>10.872</v>
+        <v>13.132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>369.04</v>
+        <v>281.42</v>
       </c>
       <c r="D9" t="n">
-        <v>420.12</v>
+        <v>335.52</v>
       </c>
       <c r="E9" t="n">
-        <v>5.888</v>
+        <v>11.688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>261.02</v>
+        <v>282.82</v>
       </c>
       <c r="D10" t="n">
-        <v>320.12</v>
+        <v>348.38</v>
       </c>
       <c r="E10" t="n">
-        <v>10.648</v>
+        <v>11.452</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>420.12</v>
+        <v>265.08</v>
       </c>
       <c r="D11" t="n">
-        <v>507.52</v>
+        <v>331</v>
       </c>
       <c r="E11" t="n">
-        <v>2.248</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>303.98</v>
+        <v>335.52</v>
       </c>
       <c r="D12" t="n">
-        <v>373.26</v>
+        <v>371.88</v>
       </c>
       <c r="E12" t="n">
-        <v>7.544</v>
+        <v>9.192</v>
       </c>
     </row>
     <row r="13">
@@ -675,93 +675,93 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>366.72</v>
+        <v>294.32</v>
       </c>
       <c r="D13" t="n">
-        <v>428.82</v>
+        <v>339.42</v>
       </c>
       <c r="E13" t="n">
-        <v>5.968</v>
+        <v>9.327999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>216.48</v>
+        <v>371.88</v>
       </c>
       <c r="D14" t="n">
-        <v>264.74</v>
+        <v>418.98</v>
       </c>
       <c r="E14" t="n">
-        <v>13.196</v>
+        <v>6.112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>320.12</v>
+        <v>348.38</v>
       </c>
       <c r="D15" t="n">
-        <v>374.2</v>
+        <v>417.58</v>
       </c>
       <c r="E15" t="n">
-        <v>7.84</v>
+        <v>7.132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>428.82</v>
+        <v>431.88</v>
       </c>
       <c r="D16" t="n">
-        <v>471.1</v>
+        <v>466.94</v>
       </c>
       <c r="E16" t="n">
-        <v>2.38</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>471.1</v>
+        <v>466.94</v>
       </c>
       <c r="D17" t="n">
-        <v>525.72</v>
+        <v>542.21</v>
       </c>
       <c r="E17" t="n">
-        <v>0.048</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>525.72</v>
+        <v>339.42</v>
       </c>
       <c r="D18" t="n">
-        <v>622.22</v>
+        <v>404.64</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>6.416</v>
       </c>
     </row>
     <row r="19">
@@ -789,55 +789,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>507.52</v>
+        <v>331</v>
       </c>
       <c r="D19" t="n">
-        <v>609.42</v>
+        <v>397.8</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>609.42</v>
+        <v>417.58</v>
       </c>
       <c r="D20" t="n">
-        <v>680.02</v>
+        <v>465.38</v>
       </c>
       <c r="E20" t="n">
-        <v>27.58</v>
+        <v>4.492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>302.34</v>
+        <v>404.64</v>
       </c>
       <c r="D21" t="n">
-        <v>343.74</v>
+        <v>444.16</v>
       </c>
       <c r="E21" t="n">
-        <v>9.896000000000001</v>
+        <v>4.084</v>
       </c>
     </row>
     <row r="22">
@@ -846,55 +846,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>374.2</v>
+        <v>542.21</v>
       </c>
       <c r="D22" t="n">
-        <v>412.4</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>4.66</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>343.74</v>
+        <v>465.38</v>
       </c>
       <c r="D23" t="n">
-        <v>438.76</v>
+        <v>515.4400000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>6.464</v>
+        <v>2.116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>438.76</v>
+        <v>257.92</v>
       </c>
       <c r="D24" t="n">
-        <v>505.26</v>
+        <v>333.28</v>
       </c>
       <c r="E24" t="n">
-        <v>4.384</v>
+        <v>11.772</v>
       </c>
     </row>
     <row r="25">
@@ -903,131 +903,131 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>373.26</v>
+        <v>333.28</v>
       </c>
       <c r="D25" t="n">
-        <v>457.24</v>
+        <v>389.38</v>
       </c>
       <c r="E25" t="n">
-        <v>4.736</v>
+        <v>8.772</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>264.74</v>
+        <v>389.38</v>
       </c>
       <c r="D26" t="n">
-        <v>324.4</v>
+        <v>434.18</v>
       </c>
       <c r="E26" t="n">
-        <v>10.82</v>
+        <v>4.932</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>505.26</v>
+        <v>444.16</v>
       </c>
       <c r="D27" t="n">
-        <v>540.3200000000001</v>
+        <v>513.34</v>
       </c>
       <c r="E27" t="n">
-        <v>2.008</v>
+        <v>1.276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>324.4</v>
+        <v>513.34</v>
       </c>
       <c r="D28" t="n">
-        <v>378.26</v>
+        <v>582.6900000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>6.564</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>378.26</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>422.88</v>
+        <v>652.9299999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>4.232</v>
+        <v>24.228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>412.4</v>
+        <v>515.4400000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>464.52</v>
+        <v>588.21</v>
       </c>
       <c r="E30" t="n">
-        <v>2.068</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>540.3200000000001</v>
+        <v>588.21</v>
       </c>
       <c r="D31" t="n">
-        <v>642.7</v>
+        <v>628.29</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="32">
@@ -1040,48 +1040,48 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>642.7</v>
+        <v>418.98</v>
       </c>
       <c r="D32" t="n">
-        <v>696.52</v>
+        <v>482.1</v>
       </c>
       <c r="E32" t="n">
-        <v>26.808</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>422.88</v>
+        <v>434.18</v>
       </c>
       <c r="D33" t="n">
-        <v>493.14</v>
+        <v>510.76</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8159999999999999</v>
+        <v>1.864</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>493.14</v>
+        <v>510.76</v>
       </c>
       <c r="D34" t="n">
-        <v>593.01</v>
+        <v>583.83</v>
       </c>
       <c r="E34" t="n">
         <v>30</v>
@@ -1089,18 +1089,18 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>464.52</v>
+        <v>482.1</v>
       </c>
       <c r="D35" t="n">
-        <v>547.1799999999999</v>
+        <v>563.16</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,154 +1108,135 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>547.1799999999999</v>
+        <v>563.16</v>
       </c>
       <c r="D36" t="n">
-        <v>608.1</v>
+        <v>619.64</v>
       </c>
       <c r="E36" t="n">
-        <v>27.088</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>457.24</v>
+        <v>582.6900000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>490.14</v>
+        <v>648.29</v>
       </c>
       <c r="E37" t="n">
-        <v>2.576</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>622.22</v>
+        <v>652.9299999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>678.78</v>
+        <v>708.05</v>
       </c>
       <c r="E38" t="n">
-        <v>27.504</v>
+        <v>21.316</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>696.52</v>
+        <v>628.29</v>
       </c>
       <c r="D39" t="n">
-        <v>756.74</v>
+        <v>667.77</v>
       </c>
       <c r="E39" t="n">
-        <v>23.896</v>
+        <v>24.384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>593.01</v>
+        <v>397.8</v>
       </c>
       <c r="D40" t="n">
-        <v>638.67</v>
+        <v>459.3</v>
       </c>
       <c r="E40" t="n">
-        <v>27.624</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>608.1</v>
+        <v>619.64</v>
       </c>
       <c r="D41" t="n">
-        <v>673.1</v>
+        <v>654.36</v>
       </c>
       <c r="E41" t="n">
-        <v>24.228</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>490.14</v>
+        <v>648.29</v>
       </c>
       <c r="D42" t="n">
-        <v>561.89</v>
+        <v>678.45</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pond37</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>561.89</v>
-      </c>
-      <c r="D43" t="n">
-        <v>614.39</v>
-      </c>
-      <c r="E43" t="n">
-        <v>26.92</v>
+        <v>25.204</v>
       </c>
     </row>
   </sheetData>
